--- a/src/test/resources/excels/TestData.xlsx
+++ b/src/test/resources/excels/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Message</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
